--- a/biology/Biologie cellulaire et moléculaire/ADN_environnemental/ADN_environnemental.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/ADN_environnemental/ADN_environnemental.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ADN environnemental, parfois abrégé en ADNe, est de l'ADN collecté dans l'environnement (eau[1], sédiments[2], sol...) plutôt que directement sur un organisme. Sa collecte permet, grâce à des outils génétiques comme le métabarcoding, d'identifier la ou les espèces dont il provient.
-L'ADN environnemental est utilisé pour effectuer des inventaires de biodiversité[3], détecter des espèces d'intérêt[1] soit menacées[4], soit envahissantes[5], ou pour étudier des paléoenvironnements[2].
-Le terme est parfois utilisé pour désigner directement la technique d'identification utilisant l'ADN prélevé dans l'environnement[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ADN environnemental, parfois abrégé en ADNe, est de l'ADN collecté dans l'environnement (eau, sédiments, sol...) plutôt que directement sur un organisme. Sa collecte permet, grâce à des outils génétiques comme le métabarcoding, d'identifier la ou les espèces dont il provient.
+L'ADN environnemental est utilisé pour effectuer des inventaires de biodiversité, détecter des espèces d'intérêt soit menacées, soit envahissantes, ou pour étudier des paléoenvironnements.
+Le terme est parfois utilisé pour désigner directement la technique d'identification utilisant l'ADN prélevé dans l'environnement.
 </t>
         </is>
       </c>
